--- a/Accuracy_Level_Articles.xlsx
+++ b/Accuracy_Level_Articles.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emisilva\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39988C9-FEE7-4335-9902-E0A46275CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3840" yWindow="2580" windowWidth="13140" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Articles" sheetId="1" r:id="rId1"/>
+    <sheet name="Count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Article Title</t>
   </si>
@@ -107,13 +114,28 @@
   </si>
   <si>
     <t>Low accuracy</t>
+  </si>
+  <si>
+    <t>Nível de Acurácia</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Inaccurate ( Low accuracy)</t>
+  </si>
+  <si>
+    <t>Precise (Accurate)</t>
+  </si>
+  <si>
+    <t>Very precise ( Highly accurate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,14 +183,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,13 +225,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +277,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -494,7 +555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -502,7 +563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -510,7 +571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -518,7 +579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -526,7 +587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -534,7 +595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -542,7 +603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -550,7 +611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -558,7 +619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -566,7 +627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -574,7 +635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -582,7 +643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -590,7 +651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -598,7 +659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -606,7 +667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -614,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -622,7 +683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -630,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -638,7 +699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -646,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -654,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -662,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -670,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -678,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -689,4 +750,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BB084-4D9A-4F2C-AF05-7978300C75EE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>